--- a/identification.xlsx
+++ b/identification.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Montipora</t>
   </si>
   <si>
-    <t xml:space="preserve">Vase?</t>
+    <t xml:space="preserve">Vase</t>
   </si>
   <si>
     <t xml:space="preserve">M - Mollusc</t>
@@ -604,14 +604,14 @@
   </sheetPr>
   <dimension ref="A1:N230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A143" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H159" activeCellId="0" sqref="H159"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="1" sqref="H6 H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
